--- a/iot-plateform/iot-wlg-report/src/main/resources/excelTemplate/customerRequirement.xlsx
+++ b/iot-plateform/iot-wlg-report/src/main/resources/excelTemplate/customerRequirement.xlsx
@@ -36,11 +36,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>达成率</t>
+    <t>2022-05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022-05</t>
+    <t>目标总产量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,9 +111,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -397,42 +397,42 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
         <v>2000</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.1</v>
+      <c r="D2" s="4">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
